--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value26.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value26.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18487235347034</v>
+        <v>4.509852886199951</v>
       </c>
       <c r="B1">
-        <v>1.289785159518547</v>
+        <v>3.571891069412231</v>
       </c>
       <c r="C1">
-        <v>1.281957880683478</v>
+        <v>3.157248258590698</v>
       </c>
       <c r="D1">
-        <v>1.554445785531361</v>
+        <v>3.959398984909058</v>
       </c>
       <c r="E1">
-        <v>2.230737128760026</v>
+        <v>5.434846878051758</v>
       </c>
     </row>
   </sheetData>
